--- a/biology/Médecine/Mikael_Pittet/Mikael_Pittet.xlsx
+++ b/biology/Médecine/Mikael_Pittet/Mikael_Pittet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mikael Pittet, né le 23 mai 1975 à Lausanne, est un chercheur et professeur suisse.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mikael Pittet a terminé sa thèse de doctorat en immunologie à l'Institut Ludwig pour la recherche sur le cancer et est diplômé de l'Université de Lausanne en 2001. Il a ensuite poursuivi des recherches post-doctorales au Massachusetts General Hospital (MGH), à la Harvard Medical School (HMS) et au Dana-Farber Cancer Institute (DFCI), à Boston (États-Unis).
 Il est devenu professeur assistant à l'HMS en 2006, professeur associé en 2013 et professeur en 2019 (Département de radiologie). Ill a été nommé Samana Cay MGH Research Scholar en 2015 et nommé directeur du programme d'immunologie du cancer du CSB en 2016.
-Après plus de quinze ans passés aux États-Unis, Mikaël Pittet est nommé en septembre 2021, professeur au Département de pathologie et immunologie de l’Université de Genève[1].
+Après plus de quinze ans passés aux États-Unis, Mikaël Pittet est nommé en septembre 2021, professeur au Département de pathologie et immunologie de l’Université de Genève.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Domaine de recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mikael Pittet est un chercheur largement cité  en immunologie du cancer et en immunothérapie du cancer, en particulier dans les domaines de l'immunité innée et adaptative[2]. Ses recherches portent sur la découverte de la façon dont le système immunitaire contrôle le cancer et d'autres maladies et comment il peut être exploité pour la thérapie[3],[4],[5]. Il est connu pour utiliser l'imagerie moléculaire pour suivre les cellules immunitaires et les médicaments directement in vivo[6],[7]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mikael Pittet est un chercheur largement cité  en immunologie du cancer et en immunothérapie du cancer, en particulier dans les domaines de l'immunité innée et adaptative. Ses recherches portent sur la découverte de la façon dont le système immunitaire contrôle le cancer et d'autres maladies et comment il peut être exploité pour la thérapie. Il est connu pour utiliser l'imagerie moléculaire pour suivre les cellules immunitaires et les médicaments directement in vivo,. 
 Les travaux du Professeur Pittet ont identifié comment les cancers sont régulés par diverses cellules immunitaires, y compris les cellules T cytotoxiques, les cellules T régulatrices, les macrophages, les monocytes, les neutrophiles et les cellules dendritiques. Ces cellules sont considérées comme des cibles thérapeutiques dans l'immunothérapie du cancer.
 </t>
         </is>
@@ -576,7 +592,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Mikael Pittet est l'auteur de plus de 140 publications dans des revues à comité de lecture et a contribué à plusieurs manuels. Son travail a été cité plus de 25 000 fois et il a un h-index de 75.
 </t>
@@ -607,9 +625,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les travaux de Mikael Pittet ont été récompensés par le prix de la bourse de recherche Samana Cay MGH 2015[8], le prix Robert Wenner 2016[9], le prix du chercheur distingué 2016 [10] de l'Académie de recherche en radiologie et le prix de mentorat 2017 MGH. Mikael Pittet est reconnu comme un chercheur hautement cité sur la base de ses multiples articles qui se classent dans le top 1% en termes de citations dans tous les domaines et au cours de la dernière décennie [11]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les travaux de Mikael Pittet ont été récompensés par le prix de la bourse de recherche Samana Cay MGH 2015, le prix Robert Wenner 2016, le prix du chercheur distingué 2016  de l'Académie de recherche en radiologie et le prix de mentorat 2017 MGH. Mikael Pittet est reconnu comme un chercheur hautement cité sur la base de ses multiples articles qui se classent dans le top 1% en termes de citations dans tous les domaines et au cours de la dernière décennie 
 </t>
         </is>
       </c>
@@ -638,7 +658,9 @@
           <t>Publications principales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>« High frequencies of naive Melan-A/MART-1-specific CD8(+) T cells in a large proportion of human histocompatibility leukocyte antigen (HLA)-A2 individuals », J Exp Med, vol. 190, no 5,‎ 1999, p. 705–15 (PMID 10477554, PMCID 2195613, DOI 10.1084/jem.190.5.705)
 « Effector function of human tumor-specific CD8 T cells in melanoma lesions: a state of local functional tolerance », Cancer Res, vol. 64, no 8,‎ 2004, p. 2865–73 (PMID 15087405, DOI 10.1158/0008-5472.can-03-3066)
